--- a/results/[0_basic]_#_fix_cost.xlsx
+++ b/results/[0_basic]_#_fix_cost.xlsx
@@ -492,10 +492,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1355.68743697279</v>
+        <v>1082.89975647011</v>
       </c>
       <c r="B2" t="n">
-        <v>1280.705121601724</v>
+        <v>488.4827730520537</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -504,13 +504,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>14026.90210065367</v>
+        <v>12994.97480160424</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661809</v>
+        <v>8095.925712661734</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -519,7 +519,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6067.047975687536</v>
+        <v>5820.297176149042</v>
       </c>
     </row>
   </sheetData>
@@ -595,10 +595,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>7155.549343933199</v>
+        <v>5855.63995427043</v>
       </c>
       <c r="B2" t="n">
-        <v>1280.705121601724</v>
+        <v>488.4827730520537</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -607,13 +607,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>47026.40076441444</v>
+        <v>41137.20798023105</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661809</v>
+        <v>8095.925712661734</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -622,7 +622,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>18816.968414458</v>
+        <v>18566.05691013583</v>
       </c>
     </row>
   </sheetData>
@@ -698,10 +698,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11520.85895425426</v>
+        <v>11110.86551379928</v>
       </c>
       <c r="B2" t="n">
-        <v>1280.705121601724</v>
+        <v>488.4827730520537</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -710,13 +710,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>94965.9799218525</v>
+        <v>101297.3375424221</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661809</v>
+        <v>8095.925712661734</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29899.88683713793</v>
+        <v>28353.5264413284</v>
       </c>
     </row>
   </sheetData>
@@ -801,10 +801,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11520.85895425426</v>
+        <v>11110.86551379928</v>
       </c>
       <c r="B2" t="n">
-        <v>1280.705121601724</v>
+        <v>488.4827730520537</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -813,13 +813,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>94965.9799218525</v>
+        <v>101297.3375424221</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661809</v>
+        <v>8095.925712661734</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29899.88683713793</v>
+        <v>28353.5264413284</v>
       </c>
     </row>
   </sheetData>
@@ -904,10 +904,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11520.85895425426</v>
+        <v>11110.86551379928</v>
       </c>
       <c r="B2" t="n">
-        <v>1280.705121601724</v>
+        <v>488.4827730520537</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -916,13 +916,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>94965.9799218525</v>
+        <v>101297.3375424221</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661809</v>
+        <v>8095.925712661734</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -931,7 +931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29899.88683713793</v>
+        <v>28353.5264413284</v>
       </c>
     </row>
   </sheetData>
@@ -1007,10 +1007,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11520.85895425426</v>
+        <v>11110.86551379928</v>
       </c>
       <c r="B2" t="n">
-        <v>1280.705121601724</v>
+        <v>488.4827730520537</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1019,13 +1019,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>94965.9799218525</v>
+        <v>101297.3375424221</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661809</v>
+        <v>8095.925712661734</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -1034,7 +1034,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29899.88683713793</v>
+        <v>28353.5264413284</v>
       </c>
     </row>
   </sheetData>

--- a/results/[0_basic]_#_fix_cost.xlsx
+++ b/results/[0_basic]_#_fix_cost.xlsx
@@ -492,10 +492,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1082.89975647011</v>
+        <v>1080.788582146178</v>
       </c>
       <c r="B2" t="n">
-        <v>488.4827730520537</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -504,13 +504,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>12994.97480160424</v>
+        <v>13604.48023863496</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661734</v>
+        <v>8095.925712661812</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -519,7 +519,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>5820.297176149042</v>
+        <v>5821.430326991662</v>
       </c>
     </row>
   </sheetData>
@@ -595,10 +595,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5855.63995427043</v>
+        <v>5333.608808339683</v>
       </c>
       <c r="B2" t="n">
-        <v>488.4827730520537</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -607,13 +607,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>41137.20798023105</v>
+        <v>42364.73122917186</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661734</v>
+        <v>8095.925712661812</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -622,7 +622,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>18566.05691013583</v>
+        <v>18834.00630657063</v>
       </c>
     </row>
   </sheetData>
@@ -698,10 +698,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11110.86551379928</v>
+        <v>10759.14992734047</v>
       </c>
       <c r="B2" t="n">
-        <v>488.4827730520537</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -710,13 +710,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>101297.3375424221</v>
+        <v>102392.9378441419</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661734</v>
+        <v>8095.925712661812</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28353.5264413284</v>
+        <v>28621.59541421341</v>
       </c>
     </row>
   </sheetData>
@@ -801,10 +801,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11110.86551379928</v>
+        <v>10759.14992734047</v>
       </c>
       <c r="B2" t="n">
-        <v>488.4827730520537</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -813,13 +813,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>101297.3375424221</v>
+        <v>102392.9378441419</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661734</v>
+        <v>8095.925712661812</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28353.5264413284</v>
+        <v>28621.59541421341</v>
       </c>
     </row>
   </sheetData>
@@ -904,10 +904,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11110.86551379928</v>
+        <v>10759.14992734047</v>
       </c>
       <c r="B2" t="n">
-        <v>488.4827730520537</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -916,13 +916,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>101297.3375424221</v>
+        <v>102392.9378441419</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661734</v>
+        <v>8095.925712661812</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -931,7 +931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28353.5264413284</v>
+        <v>28621.59541421341</v>
       </c>
     </row>
   </sheetData>
@@ -1007,10 +1007,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11110.86551379928</v>
+        <v>10759.14992734047</v>
       </c>
       <c r="B2" t="n">
-        <v>488.4827730520537</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1019,13 +1019,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>101297.3375424221</v>
+        <v>102392.9378441419</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661734</v>
+        <v>8095.925712661812</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -1034,7 +1034,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28353.5264413284</v>
+        <v>28621.59541421341</v>
       </c>
     </row>
   </sheetData>

--- a/results/[0_basic]_#_fix_cost.xlsx
+++ b/results/[0_basic]_#_fix_cost.xlsx
@@ -492,10 +492,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1082.89975647011</v>
+        <v>1082.899756470087</v>
       </c>
       <c r="B2" t="n">
-        <v>488.4827730520537</v>
+        <v>488.482773052096</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -510,7 +510,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661734</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -519,7 +519,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>5820.297176149042</v>
+        <v>5820.297176149008</v>
       </c>
     </row>
   </sheetData>
@@ -595,10 +595,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5855.63995427043</v>
+        <v>5855.639954270414</v>
       </c>
       <c r="B2" t="n">
-        <v>488.4827730520537</v>
+        <v>488.482773052096</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -607,13 +607,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>41137.20798023105</v>
+        <v>41137.20798023103</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661734</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -622,7 +622,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>18566.05691013583</v>
+        <v>18566.05691013579</v>
       </c>
     </row>
   </sheetData>
@@ -698,10 +698,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11110.86551379928</v>
+        <v>11110.86551379931</v>
       </c>
       <c r="B2" t="n">
-        <v>488.4827730520537</v>
+        <v>488.482773052096</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -710,13 +710,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>101297.3375424221</v>
+        <v>101297.3375424222</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661734</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28353.5264413284</v>
+        <v>28353.52644132823</v>
       </c>
     </row>
   </sheetData>
@@ -801,10 +801,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11110.86551379928</v>
+        <v>11110.86551379931</v>
       </c>
       <c r="B2" t="n">
-        <v>488.4827730520537</v>
+        <v>488.482773052096</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -813,13 +813,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>101297.3375424221</v>
+        <v>101297.3375424222</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661734</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28353.5264413284</v>
+        <v>28353.52644132823</v>
       </c>
     </row>
   </sheetData>
@@ -904,10 +904,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11110.86551379928</v>
+        <v>11110.86551379931</v>
       </c>
       <c r="B2" t="n">
-        <v>488.4827730520537</v>
+        <v>488.482773052096</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -916,13 +916,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>101297.3375424221</v>
+        <v>101297.3375424222</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661734</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -931,7 +931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28353.5264413284</v>
+        <v>28353.52644132823</v>
       </c>
     </row>
   </sheetData>
@@ -1007,10 +1007,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11110.86551379928</v>
+        <v>11110.86551379931</v>
       </c>
       <c r="B2" t="n">
-        <v>488.4827730520537</v>
+        <v>488.482773052096</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1019,13 +1019,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>101297.3375424221</v>
+        <v>101297.3375424222</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661734</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -1034,7 +1034,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28353.5264413284</v>
+        <v>28353.52644132823</v>
       </c>
     </row>
   </sheetData>

--- a/results/[0_basic]_#_fix_cost.xlsx
+++ b/results/[0_basic]_#_fix_cost.xlsx
@@ -504,13 +504,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>13604.48023863496</v>
+        <v>13604.48023863495</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661812</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -519,7 +519,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>5821.430326991662</v>
+        <v>5821.430326991652</v>
       </c>
     </row>
   </sheetData>
@@ -595,7 +595,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5333.608808339683</v>
+        <v>5333.608808339523</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -607,13 +607,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>42364.73122917186</v>
+        <v>42364.73122917196</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661812</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -622,7 +622,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>18834.00630657063</v>
+        <v>18834.00630657078</v>
       </c>
     </row>
   </sheetData>
@@ -698,7 +698,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>10759.14992734047</v>
+        <v>10759.14992734067</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -710,13 +710,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>102392.9378441419</v>
+        <v>102392.9378441416</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661812</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28621.59541421341</v>
+        <v>28621.59541421318</v>
       </c>
     </row>
   </sheetData>
@@ -801,7 +801,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>10759.14992734047</v>
+        <v>10759.14992734067</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -813,13 +813,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>102392.9378441419</v>
+        <v>102392.9378441416</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661812</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28621.59541421341</v>
+        <v>28621.59541421318</v>
       </c>
     </row>
   </sheetData>
@@ -904,7 +904,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>10759.14992734047</v>
+        <v>10759.14992734067</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -916,13 +916,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>102392.9378441419</v>
+        <v>102392.9378441416</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661812</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -931,7 +931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28621.59541421341</v>
+        <v>28621.59541421318</v>
       </c>
     </row>
   </sheetData>
@@ -1007,7 +1007,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>10759.14992734047</v>
+        <v>10759.14992734067</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -1019,13 +1019,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>102392.9378441419</v>
+        <v>102392.9378441416</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661812</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -1034,7 +1034,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28621.59541421341</v>
+        <v>28621.59541421318</v>
       </c>
     </row>
   </sheetData>

--- a/results/[0_basic]_#_fix_cost.xlsx
+++ b/results/[0_basic]_#_fix_cost.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,21 +481,51 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>ac</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ab_ct</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>ab_hp</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>cp_ct</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>cp_hp</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
           <t>ates</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ttes</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>ites</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1082.899756470087</v>
+        <v>1052.266555618711</v>
       </c>
       <c r="B2" t="n">
-        <v>488.482773052096</v>
+        <v>507.6495620934486</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -504,7 +534,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>12994.97480160424</v>
+        <v>13056.24731657498</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -516,10 +546,28 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>19983.62688324001</v>
       </c>
       <c r="J2" t="n">
-        <v>5820.297176149008</v>
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>18308.144584818</v>
+      </c>
+      <c r="M2" t="n">
+        <v>6217.591780158</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>5912.552854505456</v>
+      </c>
+      <c r="P2" t="n">
+        <v>3616.879697557356</v>
       </c>
     </row>
   </sheetData>
@@ -533,7 +581,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,21 +632,51 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>ac</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ab_ct</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>ab_hp</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>cp_ct</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>cp_hp</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
           <t>ates</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ttes</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>ites</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5855.639954270414</v>
+        <v>5696.617767628693</v>
       </c>
       <c r="B2" t="n">
-        <v>488.482773052096</v>
+        <v>507.6495620934486</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -607,7 +685,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>41137.20798023103</v>
+        <v>41672.65814761947</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -619,10 +697,28 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34182.77902366782</v>
       </c>
       <c r="J2" t="n">
-        <v>18566.05691013579</v>
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>95083.37837333453</v>
+      </c>
+      <c r="M2" t="n">
+        <v>25113.26834048615</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>18601.89280438308</v>
+      </c>
+      <c r="P2" t="n">
+        <v>9187.853845350499</v>
       </c>
     </row>
   </sheetData>
@@ -636,7 +732,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -687,21 +783,51 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>ac</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ab_ct</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>ab_hp</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>cp_ct</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>cp_hp</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
           <t>ates</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ttes</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>ites</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11110.86551379931</v>
+        <v>11140.17554908311</v>
       </c>
       <c r="B2" t="n">
-        <v>488.482773052096</v>
+        <v>507.6495620934486</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -710,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>101297.3375424222</v>
+        <v>100919.744318563</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -722,10 +848,28 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>94270.28649863464</v>
       </c>
       <c r="J2" t="n">
-        <v>28353.52644132823</v>
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>155603.9212427722</v>
+      </c>
+      <c r="M2" t="n">
+        <v>62826.31725080314</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>28740.57766953699</v>
+      </c>
+      <c r="P2" t="n">
+        <v>26250.66103583672</v>
       </c>
     </row>
   </sheetData>
@@ -739,7 +883,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -790,21 +934,51 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>ac</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ab_ct</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>ab_hp</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>cp_ct</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>cp_hp</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
           <t>ates</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ttes</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>ites</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11110.86551379931</v>
+        <v>11140.17554908311</v>
       </c>
       <c r="B2" t="n">
-        <v>488.482773052096</v>
+        <v>507.6495620934486</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -813,7 +987,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>101297.3375424222</v>
+        <v>100919.744318563</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -825,10 +999,28 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>94270.28649863464</v>
       </c>
       <c r="J2" t="n">
-        <v>28353.52644132823</v>
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>155603.9212427722</v>
+      </c>
+      <c r="M2" t="n">
+        <v>62826.31725080314</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>28740.57766953699</v>
+      </c>
+      <c r="P2" t="n">
+        <v>26250.66103583672</v>
       </c>
     </row>
   </sheetData>
@@ -842,7 +1034,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -893,21 +1085,51 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>ac</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ab_ct</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>ab_hp</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>cp_ct</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>cp_hp</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
           <t>ates</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ttes</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>ites</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11110.86551379931</v>
+        <v>11140.17554908311</v>
       </c>
       <c r="B2" t="n">
-        <v>488.482773052096</v>
+        <v>507.6495620934486</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -916,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>101297.3375424222</v>
+        <v>100919.744318563</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -928,10 +1150,28 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>94270.28649863464</v>
       </c>
       <c r="J2" t="n">
-        <v>28353.52644132823</v>
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>155603.9212427722</v>
+      </c>
+      <c r="M2" t="n">
+        <v>62826.31725080314</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>28740.57766953699</v>
+      </c>
+      <c r="P2" t="n">
+        <v>26250.66103583672</v>
       </c>
     </row>
   </sheetData>
@@ -945,7 +1185,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -996,21 +1236,51 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>ac</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ab_ct</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>ab_hp</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>cp_ct</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>cp_hp</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
           <t>ates</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ttes</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>ites</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11110.86551379931</v>
+        <v>11140.17554908311</v>
       </c>
       <c r="B2" t="n">
-        <v>488.482773052096</v>
+        <v>507.6495620934486</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1019,7 +1289,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>101297.3375424222</v>
+        <v>100919.744318563</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1031,10 +1301,28 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>94270.28649863464</v>
       </c>
       <c r="J2" t="n">
-        <v>28353.52644132823</v>
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>155603.9212427722</v>
+      </c>
+      <c r="M2" t="n">
+        <v>62826.31725080314</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>28740.57766953699</v>
+      </c>
+      <c r="P2" t="n">
+        <v>26250.66103583672</v>
       </c>
     </row>
   </sheetData>

--- a/results/[0_basic]_#_fix_cost.xlsx
+++ b/results/[0_basic]_#_fix_cost.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,18 +481,48 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>ac</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ab_ct</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>ab_hp</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>cp_ct</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>cp_hp</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
           <t>ates</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ttes</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>ites</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1080.788582146178</v>
+        <v>1058.45234</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -504,22 +534,40 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>13604.48023863495</v>
+        <v>13636.01420617428</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661834</v>
+        <v>8095.925712661819</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>18517.2621913662</v>
       </c>
       <c r="J2" t="n">
-        <v>5821.430326991652</v>
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>21421.44583563834</v>
+      </c>
+      <c r="M2" t="n">
+        <v>6108.344375382986</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>5917.99876079996</v>
+      </c>
+      <c r="P2" t="n">
+        <v>3617.101831084197</v>
       </c>
     </row>
   </sheetData>
@@ -533,7 +581,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,18 +632,48 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>ac</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ab_ct</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>ab_hp</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>cp_ct</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>cp_hp</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
           <t>ates</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ttes</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>ites</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5333.608808339523</v>
+        <v>5140.22909482059</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -607,22 +685,40 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>42364.73122917196</v>
+        <v>42951.10139201277</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661834</v>
+        <v>8095.925712661819</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>30858.00353605898</v>
       </c>
       <c r="J2" t="n">
-        <v>18834.00630657078</v>
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>101612.8618709482</v>
+      </c>
+      <c r="M2" t="n">
+        <v>25011.57034987365</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>18907.14272478995</v>
+      </c>
+      <c r="P2" t="n">
+        <v>9672.773487387314</v>
       </c>
     </row>
   </sheetData>
@@ -636,7 +732,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -687,18 +783,48 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>ac</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ab_ct</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>ab_hp</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>cp_ct</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>cp_hp</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
           <t>ates</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ttes</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>ites</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>10759.14992734067</v>
+        <v>10696.68930995204</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -710,22 +836,40 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>102392.9378441416</v>
+        <v>102377.1161749718</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661834</v>
+        <v>8095.925712661819</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85431.43232025557</v>
       </c>
       <c r="J2" t="n">
-        <v>28621.59541421318</v>
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>172557.2259013701</v>
+      </c>
+      <c r="M2" t="n">
+        <v>63423.72648871163</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>28953.70178107505</v>
+      </c>
+      <c r="P2" t="n">
+        <v>26974.86075720844</v>
       </c>
     </row>
   </sheetData>
@@ -739,7 +883,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -790,18 +934,48 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>ac</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ab_ct</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>ab_hp</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>cp_ct</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>cp_hp</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
           <t>ates</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ttes</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>ites</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>10759.14992734067</v>
+        <v>10696.68930995204</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -813,22 +987,40 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>102392.9378441416</v>
+        <v>102377.1161749718</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661834</v>
+        <v>8095.925712661819</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85431.43232025557</v>
       </c>
       <c r="J2" t="n">
-        <v>28621.59541421318</v>
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>172557.2259013701</v>
+      </c>
+      <c r="M2" t="n">
+        <v>63423.72648871163</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>28953.70178107505</v>
+      </c>
+      <c r="P2" t="n">
+        <v>26974.86075720844</v>
       </c>
     </row>
   </sheetData>
@@ -842,7 +1034,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -893,18 +1085,48 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>ac</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ab_ct</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>ab_hp</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>cp_ct</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>cp_hp</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
           <t>ates</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ttes</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>ites</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>10759.14992734067</v>
+        <v>10696.68930995204</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -916,22 +1138,40 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>102392.9378441416</v>
+        <v>102377.1161749718</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661834</v>
+        <v>8095.925712661819</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85431.43232025557</v>
       </c>
       <c r="J2" t="n">
-        <v>28621.59541421318</v>
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>172557.2259013701</v>
+      </c>
+      <c r="M2" t="n">
+        <v>63423.72648871163</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>28953.70178107505</v>
+      </c>
+      <c r="P2" t="n">
+        <v>26974.86075720844</v>
       </c>
     </row>
   </sheetData>
@@ -945,7 +1185,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -996,18 +1236,48 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>ac</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ab_ct</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>ab_hp</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>cp_ct</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>cp_hp</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
           <t>ates</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ttes</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>ites</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>10759.14992734067</v>
+        <v>10696.68930995204</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -1019,22 +1289,40 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>102392.9378441416</v>
+        <v>102377.1161749718</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661834</v>
+        <v>8095.925712661819</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85431.43232025557</v>
       </c>
       <c r="J2" t="n">
-        <v>28621.59541421318</v>
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>172557.2259013701</v>
+      </c>
+      <c r="M2" t="n">
+        <v>63423.72648871163</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>28953.70178107505</v>
+      </c>
+      <c r="P2" t="n">
+        <v>26974.86075720844</v>
       </c>
     </row>
   </sheetData>

--- a/results/[0_basic]_#_fix_cost.xlsx
+++ b/results/[0_basic]_#_fix_cost.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,15 +506,10 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ates</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>ttes</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>ites</t>
         </is>
@@ -525,7 +520,7 @@
         <v>1052.266555618711</v>
       </c>
       <c r="B2" t="n">
-        <v>507.6495620934486</v>
+        <v>507.6495620935125</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -534,7 +529,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>13056.24731657498</v>
+        <v>13056.24731657491</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -561,13 +556,10 @@
         <v>6217.591780158</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>5912.552854505455</v>
       </c>
       <c r="O2" t="n">
-        <v>5912.552854505456</v>
-      </c>
-      <c r="P2" t="n">
-        <v>3616.879697557356</v>
+        <v>3616.879697557355</v>
       </c>
     </row>
   </sheetData>
@@ -581,7 +573,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -657,15 +649,10 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ates</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>ttes</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>ites</t>
         </is>
@@ -673,10 +660,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5696.617767628693</v>
+        <v>5696.617767628727</v>
       </c>
       <c r="B2" t="n">
-        <v>507.6495620934486</v>
+        <v>507.6495620935125</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -685,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>41672.65814761947</v>
+        <v>41672.65814761941</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -697,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>34182.77902366782</v>
+        <v>34182.77902366783</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,13 +699,10 @@
         <v>25113.26834048615</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>18601.8928043832</v>
       </c>
       <c r="O2" t="n">
-        <v>18601.89280438308</v>
-      </c>
-      <c r="P2" t="n">
-        <v>9187.853845350499</v>
+        <v>9187.85384535049</v>
       </c>
     </row>
   </sheetData>
@@ -732,7 +716,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -808,15 +792,10 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ates</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>ttes</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>ites</t>
         </is>
@@ -824,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11140.17554908311</v>
+        <v>11140.17554908304</v>
       </c>
       <c r="B2" t="n">
-        <v>507.6495620934486</v>
+        <v>507.6495620935125</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -836,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100919.744318563</v>
+        <v>100919.7443185626</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -848,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>94270.28649863464</v>
+        <v>94270.28649863452</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -857,19 +836,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>155603.9212427722</v>
+        <v>155603.9212427724</v>
       </c>
       <c r="M2" t="n">
         <v>62826.31725080314</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>28740.57766953748</v>
       </c>
       <c r="O2" t="n">
-        <v>28740.57766953699</v>
-      </c>
-      <c r="P2" t="n">
-        <v>26250.66103583672</v>
+        <v>26250.66103583675</v>
       </c>
     </row>
   </sheetData>
@@ -883,7 +859,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -959,15 +935,10 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ates</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>ttes</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>ites</t>
         </is>
@@ -975,10 +946,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11140.17554908311</v>
+        <v>11140.17554908304</v>
       </c>
       <c r="B2" t="n">
-        <v>507.6495620934486</v>
+        <v>507.6495620935125</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -987,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100919.744318563</v>
+        <v>100919.7443185626</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -999,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>94270.28649863464</v>
+        <v>94270.28649863452</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1008,19 +979,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>155603.9212427722</v>
+        <v>155603.9212427724</v>
       </c>
       <c r="M2" t="n">
         <v>62826.31725080314</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>28740.57766953748</v>
       </c>
       <c r="O2" t="n">
-        <v>28740.57766953699</v>
-      </c>
-      <c r="P2" t="n">
-        <v>26250.66103583672</v>
+        <v>26250.66103583675</v>
       </c>
     </row>
   </sheetData>
@@ -1034,7 +1002,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1110,15 +1078,10 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ates</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>ttes</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>ites</t>
         </is>
@@ -1126,10 +1089,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11140.17554908311</v>
+        <v>11140.17554908304</v>
       </c>
       <c r="B2" t="n">
-        <v>507.6495620934486</v>
+        <v>507.6495620935125</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1138,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100919.744318563</v>
+        <v>100919.7443185626</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1150,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>94270.28649863464</v>
+        <v>94270.28649863452</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1159,19 +1122,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>155603.9212427722</v>
+        <v>155603.9212427724</v>
       </c>
       <c r="M2" t="n">
         <v>62826.31725080314</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>28740.57766953748</v>
       </c>
       <c r="O2" t="n">
-        <v>28740.57766953699</v>
-      </c>
-      <c r="P2" t="n">
-        <v>26250.66103583672</v>
+        <v>26250.66103583675</v>
       </c>
     </row>
   </sheetData>
@@ -1185,7 +1145,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1261,15 +1221,10 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ates</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>ttes</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>ites</t>
         </is>
@@ -1277,10 +1232,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11140.17554908311</v>
+        <v>11140.17554908304</v>
       </c>
       <c r="B2" t="n">
-        <v>507.6495620934486</v>
+        <v>507.6495620935125</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1289,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100919.744318563</v>
+        <v>100919.7443185626</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1301,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>94270.28649863464</v>
+        <v>94270.28649863452</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1310,19 +1265,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>155603.9212427722</v>
+        <v>155603.9212427724</v>
       </c>
       <c r="M2" t="n">
         <v>62826.31725080314</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>28740.57766953748</v>
       </c>
       <c r="O2" t="n">
-        <v>28740.57766953699</v>
-      </c>
-      <c r="P2" t="n">
-        <v>26250.66103583672</v>
+        <v>26250.66103583675</v>
       </c>
     </row>
   </sheetData>
